--- a/Proyectos Evaluados/Melipilla/Antecedentes PF - Melipilla_V1.xlsx
+++ b/Proyectos Evaluados/Melipilla/Antecedentes PF - Melipilla_V1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Melipilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6E69AC-0734-4314-98F6-053CB7FD392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B79C0-3E64-43EF-A5D6-49D12008BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso PMG" sheetId="1" r:id="rId1"/>
     <sheet name="Perfil 10,611MWp" sheetId="4" r:id="rId2"/>
     <sheet name="Resultados" sheetId="5" r:id="rId3"/>
-    <sheet name="Resultados MALO" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -783,19 +782,13 @@
       <t>, BESS 36 MWh (4 hrs), 75 UF/Ha</t>
     </r>
   </si>
-  <si>
-    <t>malo</t>
-  </si>
-  <si>
-    <t>revisar los v de generacion y volvere a sacar outputs</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1003,7 +996,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,6 +1049,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,13 +1085,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1444,12 +1449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1466,7 +1471,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1483,7 +1488,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1500,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1507,7 +1512,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1524,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1533,7 +1538,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1545,7 +1550,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1585,7 +1590,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1602,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1614,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1626,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1635,7 +1640,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1652,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1664,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1671,7 +1676,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1688,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1700,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1712,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1724,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1733,7 +1738,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1746,7 +1751,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -71888,7 +71893,7 @@
   <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71938,37 +71943,67 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.87</v>
+      </c>
+      <c r="F3" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G3" s="13">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="16">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="F4" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G4" s="15">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.78</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G5" s="13">
+        <v>54.3</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -71976,34 +72011,64 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="32">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="D7" s="32">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="E7" s="33">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F7" s="33">
+        <v>8.4</v>
+      </c>
+      <c r="G7" s="33">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="16">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2.17</v>
+      </c>
+      <c r="F8" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="14">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2.13</v>
+      </c>
+      <c r="F9" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="13">
+        <v>61.2</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
@@ -72014,34 +72079,64 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="14">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="13">
+        <v>8.49</v>
+      </c>
+      <c r="G11" s="13">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="16">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="F12" s="15">
+        <v>8.51</v>
+      </c>
+      <c r="G12" s="15">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="14">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G13" s="13">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -72052,7 +72147,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="14">
@@ -72072,7 +72167,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="16">
@@ -72092,7 +72187,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="14">
@@ -72112,7 +72207,7 @@
       </c>
     </row>
     <row r="18" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="15"/>
@@ -72120,27 +72215,27 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="32">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="32">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="33">
         <v>8.51</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="33">
         <v>57.8</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="16">
@@ -72160,7 +72255,7 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="14">
@@ -72188,7 +72283,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="14">
@@ -72208,7 +72303,7 @@
       </c>
     </row>
     <row r="24" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="16">
@@ -72226,28 +72321,28 @@
       <c r="G24" s="15">
         <v>64.3</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="14">
@@ -72275,37 +72370,67 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="F27" s="13">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="G27" s="13">
+        <v>49.8</v>
+      </c>
     </row>
     <row r="28" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="16">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1.91</v>
+      </c>
+      <c r="F28" s="15">
+        <v>8.9</v>
+      </c>
+      <c r="G28" s="15">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="29" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="14">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8.92</v>
+      </c>
+      <c r="G29" s="13">
+        <v>50.3</v>
+      </c>
     </row>
     <row r="30" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="15"/>
@@ -72313,37 +72438,67 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="32">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="D31" s="32">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="E31" s="33">
+        <v>2.35</v>
+      </c>
+      <c r="F31" s="33">
+        <v>8.6</v>
+      </c>
+      <c r="G31" s="33">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="32" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="16">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F32" s="15">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G32" s="15">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="14">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F33" s="13">
+        <v>8.64</v>
+      </c>
+      <c r="G33" s="13">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="15"/>
@@ -72351,671 +72506,64 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="30">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D35" s="14">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="F35" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="G35" s="13">
+        <v>61.2</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="16">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="D36" s="16">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="F36" s="15">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G36" s="15">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE2C66-AB66-4697-A75A-9AD29A39DD02}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2:Z37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.7109375" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="14">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F3" s="13">
-        <v>9.4</v>
-      </c>
-      <c r="G3" s="13">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="16">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="F4" s="15">
-        <v>9.4</v>
-      </c>
-      <c r="G4" s="15">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="14">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="D5" s="14">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="F5" s="13">
-        <v>9.5</v>
-      </c>
-      <c r="G5" s="13">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="14">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="D7" s="14">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1.31</v>
-      </c>
-      <c r="F7" s="13">
-        <v>9</v>
-      </c>
-      <c r="G7" s="13">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="16">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1.26</v>
-      </c>
-      <c r="F8" s="15">
-        <v>9.1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="14">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1.22</v>
-      </c>
-      <c r="F9" s="13">
-        <v>9.11</v>
-      </c>
-      <c r="G9" s="13">
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="14">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1.19</v>
-      </c>
-      <c r="F11" s="13">
-        <v>9.11</v>
-      </c>
-      <c r="G11" s="13">
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F12" s="15">
-        <v>9.14</v>
-      </c>
-      <c r="G12" s="15">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="14">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="D13" s="14">
-        <v>8.14E-2</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F13" s="13">
-        <v>9.17</v>
-      </c>
-      <c r="G13" s="13">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="14">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="D15" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.93</v>
-      </c>
-      <c r="F15" s="13">
-        <v>8.76</v>
-      </c>
-      <c r="G15" s="13">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1.88</v>
-      </c>
-      <c r="F16" s="15">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="G16" s="15">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="14">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="D17" s="14">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1.84</v>
-      </c>
-      <c r="F17" s="13">
-        <v>8.82</v>
-      </c>
-      <c r="G17" s="13">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="14">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F19" s="13">
-        <v>8.51</v>
-      </c>
-      <c r="G19" s="13">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="16">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>9.35E-2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2.25</v>
-      </c>
-      <c r="F20" s="15">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G20" s="15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="14">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="D21" s="14">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2.21</v>
-      </c>
-      <c r="F21" s="13">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="G21" s="13">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="14">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="D23" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E23" s="13">
-        <v>2.31</v>
-      </c>
-      <c r="F23" s="13">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G23" s="13">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="16">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D24" s="16">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F24" s="15">
-        <v>8.56</v>
-      </c>
-      <c r="G24" s="15">
-        <v>64.3</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-    </row>
-    <row r="25" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="14">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="E25" s="13">
-        <v>2.21</v>
-      </c>
-      <c r="F25" s="13">
-        <v>8.58</v>
-      </c>
-      <c r="G25" s="13">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="14">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="D27" s="14">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="F27" s="13">
-        <v>9.01</v>
-      </c>
-      <c r="G27" s="13">
-        <v>52.7</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="16">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="D28" s="16">
-        <v>8.7900000000000006E-2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1.56</v>
-      </c>
-      <c r="F28" s="15">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="G28" s="15">
-        <v>53</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="14">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="D29" s="14">
-        <v>8.7400000000000005E-2</v>
-      </c>
-      <c r="E29" s="13">
-        <v>1.51</v>
-      </c>
-      <c r="F29" s="13">
-        <v>9.06</v>
-      </c>
-      <c r="G29" s="13">
-        <v>53.2</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2.29</v>
+      </c>
+      <c r="F37" s="13">
+        <v>8.65</v>
+      </c>
+      <c r="G37" s="13">
+        <v>61.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
